--- a/be/be_bruxelles_erdf.xlsx
+++ b/be/be_bruxelles_erdf.xlsx
@@ -21,6 +21,165 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
+    <t>Brussels GreenBizz - Incubateur</t>
+  </si>
+  <si>
+    <t>11.059.378,00</t>
+  </si>
+  <si>
+    <t>Agence Régionale pour la Propreté</t>
+  </si>
+  <si>
+    <t>Bruxelles Ecopôle</t>
+  </si>
+  <si>
+    <t>4.092.634,00</t>
+  </si>
+  <si>
+    <t>CSTC</t>
+  </si>
+  <si>
+    <t>Centre d'excellence construction durable</t>
+  </si>
+  <si>
+    <t>1.120.000,00</t>
+  </si>
+  <si>
+    <t>Bruxelles environnement-ABE-Groupe One</t>
+  </si>
+  <si>
+    <t>Plan stratégiques</t>
+  </si>
+  <si>
+    <t>1.962.338,00</t>
+  </si>
+  <si>
+    <t>Erasmushogeschool</t>
+  </si>
+  <si>
+    <t>EMOVO</t>
+  </si>
+  <si>
+    <t>861.753,00</t>
+  </si>
+  <si>
+    <t>RENFORCER LA COHESION TERRITORIALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amélioration de l'attractivité et de l'image de la zone </t>
+  </si>
+  <si>
+    <t>Abatan</t>
+  </si>
+  <si>
+    <t>Agro - Parc - Abatan</t>
+  </si>
+  <si>
+    <t>4.554.835,00</t>
+  </si>
+  <si>
+    <t>Centre d'entreprise Dansaert</t>
+  </si>
+  <si>
+    <t>Centre Mode Design Brussels (CMDB)</t>
+  </si>
+  <si>
+    <t>7.000.000,00</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>Een openluchtzwembad voor Brussel</t>
+  </si>
+  <si>
+    <t>9.252.296,00</t>
+  </si>
+  <si>
+    <t>CIRB</t>
+  </si>
+  <si>
+    <t>Favoriser l'usage de l'internet dans la ZIP</t>
+  </si>
+  <si>
+    <t>224.375,00</t>
+  </si>
+  <si>
+    <t>Port de Bruxelles</t>
+  </si>
+  <si>
+    <t>Maison du Port</t>
+  </si>
+  <si>
+    <t>2.736.000,00</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>Marketing urbain</t>
+  </si>
+  <si>
+    <t>3.226.660,00</t>
+  </si>
+  <si>
+    <t>Atrium</t>
+  </si>
+  <si>
+    <t>Pôle d'innovation commerciale</t>
+  </si>
+  <si>
+    <t>3.289.300,00</t>
+  </si>
+  <si>
+    <t>Renforcement des infrastructures de proximité en lien avec l'emploi et la formation</t>
+  </si>
+  <si>
+    <t>AC Schaerbeek</t>
+  </si>
+  <si>
+    <t>Crèche Gaucheret 'Etoile du Nord"</t>
+  </si>
+  <si>
+    <t>1.888.846,00</t>
+  </si>
+  <si>
+    <t>CPAS Ville de Bxl</t>
+  </si>
+  <si>
+    <t>Crèche quartier "Maison rouge" Laeken</t>
+  </si>
+  <si>
+    <t>1.726.148,00</t>
+  </si>
+  <si>
+    <t>AC St Gilles</t>
+  </si>
+  <si>
+    <t>Crèche Verhaegen</t>
+  </si>
+  <si>
+    <t>736.111,00</t>
+  </si>
+  <si>
+    <t>Elmer</t>
+  </si>
+  <si>
+    <t>Elmer Nieuweland</t>
+  </si>
+  <si>
+    <t>805.993,00</t>
+  </si>
+  <si>
+    <t>Crèche Liverpool</t>
+  </si>
+  <si>
+    <t>576.000,00</t>
+  </si>
+  <si>
+    <t>AC Molenbeek</t>
+  </si>
+  <si>
     <t>Milieux d'accueil de la petite enfance "Rives Ouest"</t>
   </si>
   <si>
@@ -204,177 +363,12 @@
   </si>
   <si>
     <t>ABE</t>
-  </si>
-  <si>
-    <t>Brussels GreenBizz - Incubateur</t>
-  </si>
-  <si>
-    <t>11.059.378,00</t>
-  </si>
-  <si>
-    <t>Agence Régionale pour la Propreté</t>
-  </si>
-  <si>
-    <t>Bruxelles Ecopôle</t>
-  </si>
-  <si>
-    <t>4.092.634,00</t>
-  </si>
-  <si>
-    <t>CSTC</t>
-  </si>
-  <si>
-    <t>Centre d'excellence construction durable</t>
-  </si>
-  <si>
-    <t>1.120.000,00</t>
-  </si>
-  <si>
-    <t>Bruxelles environnement-ABE-Groupe One</t>
-  </si>
-  <si>
-    <t>Plan stratégiques</t>
-  </si>
-  <si>
-    <t>1.962.338,00</t>
-  </si>
-  <si>
-    <t>Erasmushogeschool</t>
-  </si>
-  <si>
-    <t>EMOVO</t>
-  </si>
-  <si>
-    <t>861.753,00</t>
-  </si>
-  <si>
-    <t>RENFORCER LA COHESION TERRITORIALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amélioration de l'attractivité et de l'image de la zone </t>
-  </si>
-  <si>
-    <t>Abatan</t>
-  </si>
-  <si>
-    <t>Agro - Parc - Abatan</t>
-  </si>
-  <si>
-    <t>4.554.835,00</t>
-  </si>
-  <si>
-    <t>Centre d'entreprise Dansaert</t>
-  </si>
-  <si>
-    <t>Centre Mode Design Brussels (CMDB)</t>
-  </si>
-  <si>
-    <t>7.000.000,00</t>
-  </si>
-  <si>
-    <t>BHR</t>
-  </si>
-  <si>
-    <t>Een openluchtzwembad voor Brussel</t>
-  </si>
-  <si>
-    <t>9.252.296,00</t>
-  </si>
-  <si>
-    <t>CIRB</t>
-  </si>
-  <si>
-    <t>Favoriser l'usage de l'internet dans la ZIP</t>
-  </si>
-  <si>
-    <t>224.375,00</t>
-  </si>
-  <si>
-    <t>Port de Bruxelles</t>
-  </si>
-  <si>
-    <t>Maison du Port</t>
-  </si>
-  <si>
-    <t>2.736.000,00</t>
-  </si>
-  <si>
-    <t>ADT</t>
-  </si>
-  <si>
-    <t>Marketing urbain</t>
-  </si>
-  <si>
-    <t>3.226.660,00</t>
-  </si>
-  <si>
-    <t>Atrium</t>
-  </si>
-  <si>
-    <t>Pôle d'innovation commerciale</t>
-  </si>
-  <si>
-    <t>3.289.300,00</t>
-  </si>
-  <si>
-    <t>Renforcement des infrastructures de proximité en lien avec l'emploi et la formation</t>
-  </si>
-  <si>
-    <t>AC Schaerbeek</t>
-  </si>
-  <si>
-    <t>Crèche Gaucheret 'Etoile du Nord"</t>
-  </si>
-  <si>
-    <t>1.888.846,00</t>
-  </si>
-  <si>
-    <t>CPAS Ville de Bxl</t>
-  </si>
-  <si>
-    <t>Crèche quartier "Maison rouge" Laeken</t>
-  </si>
-  <si>
-    <t>1.726.148,00</t>
-  </si>
-  <si>
-    <t>AC St Gilles</t>
-  </si>
-  <si>
-    <t>Crèche Verhaegen</t>
-  </si>
-  <si>
-    <t>736.111,00</t>
-  </si>
-  <si>
-    <t>Elmer</t>
-  </si>
-  <si>
-    <t>Elmer Nieuweland</t>
-  </si>
-  <si>
-    <t>805.993,00</t>
-  </si>
-  <si>
-    <t>Crèche Liverpool</t>
-  </si>
-  <si>
-    <t>576.000,00</t>
-  </si>
-  <si>
-    <t>AC Molenbeek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -736,533 +730,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D45"/>
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="113.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>2008</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>2008</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>2008</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2008</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>2008</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17">
-        <v>2008</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>2008</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21">
-        <v>2008</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>2008</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27">
-        <v>2008</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>2008</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32">
-        <v>2008</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>2008</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>2008</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>2008</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C36">
         <v>2008</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>2008</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C38">
         <v>2008</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>2008</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>2008</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>2008</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>2008</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43">
-        <v>2008</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>82</v>
+      </c>
+      <c r="C44">
+        <v>2008</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45">
-        <v>2008</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
